--- a/Modelos de Papales Scrappeados/0 - 20000000000 - WP IVA - 202307 - Cliente Muestra.xlsx
+++ b/Modelos de Papales Scrappeados/0 - 20000000000 - WP IVA - 202307 - Cliente Muestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Libros Compras y Ventas\2023\202307\Papeles de Trabajo\IVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Libros Compras y Ventas\2023\202308\Papeles de Trabajo\IVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C3651-9EAE-46DB-9ABD-D6AFE3B616CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76488C90-6377-4AB6-99BC-4741D6906C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{EFF5E054-E1EC-4F57-A026-2B99D22707B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FB061BC-D6CB-4555-B741-84C5C1943A14}"/>
   </bookViews>
   <sheets>
     <sheet name="NCCompras" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Ventas x Cód. Actividad</t>
   </si>
@@ -72,27 +72,24 @@
     <t>Copiar F2002</t>
   </si>
   <si>
-    <t>1. Responsables Inscriptos (17)</t>
-  </si>
-  <si>
-    <t>1. Responsables Inscriptos (170)</t>
-  </si>
-  <si>
-    <t>2. Cons. Finales, Exentos y No Alcanzados (389)</t>
-  </si>
-  <si>
-    <t>3. Monotributistas (3)</t>
+    <t>1. Responsables Inscriptos (10)</t>
+  </si>
+  <si>
+    <t>1. Responsables Inscriptos (124)</t>
+  </si>
+  <si>
+    <t>2. Cons. Finales, Exentos y No Alcanzados (398)</t>
+  </si>
+  <si>
+    <t>3. Monotributistas (1)</t>
+  </si>
+  <si>
+    <t>3. Monotributistas (4)</t>
   </si>
   <si>
     <t>1. Responsables Inscriptos (1)</t>
   </si>
   <si>
-    <t>1. Responsables Inscriptos (2)</t>
-  </si>
-  <si>
-    <t>3. Monotributistas (2)</t>
-  </si>
-  <si>
     <t>Total Ventas</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t>N. de Crédito Emitidas</t>
   </si>
   <si>
-    <t>1. Responsables Inscriptos (44)</t>
+    <t>1. Responsables Inscriptos (42)</t>
   </si>
   <si>
     <t>Total Notas de Crédito</t>
@@ -132,7 +129,10 @@
     <t>Total Compras Gravadas</t>
   </si>
   <si>
-    <t>Notas de Créd. Recibidas</t>
+    <t>N. Créd. Recibidas</t>
+  </si>
+  <si>
+    <t>Column-1</t>
   </si>
   <si>
     <t>Total CF a restituir</t>
@@ -488,89 +488,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F0AE0-DAB1-45FB-8E5B-8D45B8415C20}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94798BE8-ADED-4A82-BE68-7B84DC1FE1EB}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11111</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="C2">
-        <v>890305.02</v>
-      </c>
-      <c r="E2">
-        <v>186964.05</v>
-      </c>
-      <c r="G2">
+      <c r="C2" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="D2">
+        <v>4080378.85</v>
+      </c>
+      <c r="F2">
+        <v>428439.78</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>1077269.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>4508818.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2">
-        <v>890305.02</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>186964.05</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4080378.85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>428439.78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1077269.07</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4508818.63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B18DE7-47B8-4D62-B3DA-8982BE4AC27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFDCDAA-1941-4DBD-8927-C388086ADD3E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -588,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -600,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -619,54 +631,63 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="1">
         <v>0.105</v>
       </c>
       <c r="C2">
-        <v>11324045.300000001</v>
+        <v>29406948.120000001</v>
       </c>
       <c r="E2">
-        <v>1189024.76</v>
+        <v>3087729.55</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>12513070.060000001</v>
+        <v>32494677.670000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="1">
         <v>0.21</v>
       </c>
       <c r="C3">
-        <v>17787725.620000001</v>
+        <v>43311520.130000003</v>
       </c>
       <c r="E3">
-        <v>3735422.38</v>
+        <v>9095419.2300000004</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>21523148</v>
+        <v>52406939.359999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="1">
-        <v>0.27</v>
+        <v>0.105</v>
       </c>
       <c r="C4">
-        <v>815450.76</v>
+        <v>9972901.5800000001</v>
       </c>
       <c r="E4">
-        <v>220171.71</v>
+        <v>1047154.67</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1035622.47</v>
+        <v>11020056.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -677,65 +698,65 @@
         <v>0.21</v>
       </c>
       <c r="C5">
-        <v>131496.75</v>
+        <v>10022605.17</v>
       </c>
       <c r="E5">
-        <v>27614.32</v>
+        <v>2104747.09</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>159111.07</v>
+        <v>12127352.26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="C6">
-        <v>2602667.67</v>
+        <v>816283.08</v>
       </c>
       <c r="E6">
-        <v>546560.21</v>
+        <v>220396.43</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>3149227.88</v>
+        <v>1036679.51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>32661386.100000001</v>
+        <v>93530258.079999998</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>5718793.3799999999</v>
+        <v>15555446.970000001</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
-        <v>38380179.479999997</v>
+        <v>109085705.05</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595CFD89-1972-463B-ADB4-D68694C23360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6C92B6-EB83-4DDE-A7AB-B202EB229F8F}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -753,7 +774,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -782,48 +803,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>0.21</v>
       </c>
       <c r="D2">
-        <v>7346106.6200000001</v>
+        <v>4149822.83</v>
       </c>
       <c r="F2">
-        <v>1542682.39</v>
+        <v>871462.79</v>
       </c>
       <c r="H2" s="2">
-        <v>8888789.0099999998</v>
+        <v>5021285.62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>7346106.6200000001</v>
+        <v>4149822.83</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>1542682.39</v>
+        <v>871462.79</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2">
-        <v>8888789.0099999998</v>
+        <v>5021285.62</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -832,8 +853,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C751C9B-B088-43D2-B2A8-1962885E6678}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EBEE19-29B1-4EE0-9DCA-1EDDADE43C9C}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,16 +903,16 @@
         <v>0.105</v>
       </c>
       <c r="D2" s="2">
-        <v>1443995.12</v>
+        <v>863015.23</v>
       </c>
       <c r="F2">
-        <v>151619.49</v>
+        <v>90616.6</v>
       </c>
       <c r="H2" s="2">
-        <v>1595614.61</v>
+        <v>953631.83</v>
       </c>
       <c r="J2">
-        <v>1443995.12</v>
+        <v>863015.23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,16 +926,16 @@
         <v>0.21</v>
       </c>
       <c r="D3" s="2">
-        <v>88629283.450000003</v>
+        <v>88020049.629999995</v>
       </c>
       <c r="F3">
-        <v>18612149.52</v>
+        <v>18484210.420000002</v>
       </c>
       <c r="H3" s="2">
-        <v>107241432.97</v>
+        <v>106504260.05</v>
       </c>
       <c r="J3">
-        <v>88629283.450000003</v>
+        <v>88020049.629999995</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,16 +949,16 @@
         <v>0.21</v>
       </c>
       <c r="D4" s="2">
-        <v>2284801.64</v>
+        <v>2753553.7</v>
       </c>
       <c r="F4">
-        <v>479807.99</v>
+        <v>578245.86</v>
       </c>
       <c r="H4" s="2">
-        <v>2764607.95</v>
+        <v>3331797.59</v>
       </c>
       <c r="J4">
-        <v>2764607.95</v>
+        <v>3331797.59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -948,24 +969,24 @@
         <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21</v>
+        <v>0.105</v>
       </c>
       <c r="D5" s="2">
-        <v>825836.1</v>
+        <v>6092.7</v>
       </c>
       <c r="F5">
-        <v>173425.58</v>
+        <v>639.73</v>
       </c>
       <c r="H5" s="2">
-        <v>999261.68</v>
+        <v>6732.43</v>
       </c>
       <c r="J5">
-        <v>999261.68</v>
+        <v>6732.43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>649999</v>
+        <v>106139</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -974,21 +995,21 @@
         <v>0.21</v>
       </c>
       <c r="D6" s="2">
-        <v>257234.31</v>
+        <v>237797.28</v>
       </c>
       <c r="F6">
-        <v>54019.21</v>
+        <v>49937.43</v>
       </c>
       <c r="H6" s="2">
-        <v>311253.52</v>
+        <v>287734.71000000002</v>
       </c>
       <c r="J6">
-        <v>257234.31</v>
+        <v>287734.71000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>681098</v>
+        <v>649999</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -997,68 +1018,45 @@
         <v>0.21</v>
       </c>
       <c r="D7" s="2">
-        <v>78967.600000000006</v>
+        <v>245676.91</v>
       </c>
       <c r="F7">
-        <v>16583.2</v>
+        <v>51592.15</v>
       </c>
       <c r="H7" s="2">
-        <v>95550.8</v>
+        <v>297269.06</v>
       </c>
       <c r="J7">
-        <v>78967.600000000006</v>
+        <v>245676.91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>681098</v>
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.21</v>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>100816.42</v>
-      </c>
-      <c r="F8">
-        <v>21171.45</v>
+        <v>92126185.450000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19255242.190000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>121987.87</v>
-      </c>
-      <c r="J8">
-        <v>121987.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>93620934.640000001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>19508776.440000001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2">
-        <v>113129709.40000001</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
+        <v>111381425.67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A982A520-D063-4A66-A9AB-E49089CD3D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6923588C-FEDE-40F6-975E-AC7D21DC17F5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
